--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plau-St14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plau-St14.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.434592</v>
+        <v>15.44975366666667</v>
       </c>
       <c r="H2">
-        <v>58.303776</v>
+        <v>46.349261</v>
       </c>
       <c r="I2">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="J2">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7597586666666668</v>
+        <v>1.483864</v>
       </c>
       <c r="N2">
-        <v>2.279276</v>
+        <v>4.451592</v>
       </c>
       <c r="O2">
-        <v>0.3177111952105157</v>
+        <v>0.4831229533629666</v>
       </c>
       <c r="P2">
-        <v>0.3177111952105158</v>
+        <v>0.4831229533629666</v>
       </c>
       <c r="Q2">
-        <v>14.76559970513067</v>
+        <v>22.92533327483466</v>
       </c>
       <c r="R2">
-        <v>132.890397346176</v>
+        <v>206.327999473512</v>
       </c>
       <c r="S2">
-        <v>0.0395286045420289</v>
+        <v>0.06220144667808314</v>
       </c>
       <c r="T2">
-        <v>0.03952860454202891</v>
+        <v>0.06220144667808313</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.434592</v>
+        <v>15.44975366666667</v>
       </c>
       <c r="H3">
-        <v>58.303776</v>
+        <v>46.349261</v>
       </c>
       <c r="I3">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="J3">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.874204</v>
       </c>
       <c r="O3">
-        <v>0.2612476913319534</v>
+        <v>0.2034038545501667</v>
       </c>
       <c r="P3">
-        <v>0.2612476913319534</v>
+        <v>0.2034038545501667</v>
       </c>
       <c r="Q3">
-        <v>12.14146335492267</v>
+        <v>9.651996707027111</v>
       </c>
       <c r="R3">
-        <v>109.273170194304</v>
+        <v>86.867970363244</v>
       </c>
       <c r="S3">
-        <v>0.03250359708393749</v>
+        <v>0.02618797952953688</v>
       </c>
       <c r="T3">
-        <v>0.0325035970839375</v>
+        <v>0.02618797952953688</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.434592</v>
+        <v>15.44975366666667</v>
       </c>
       <c r="H4">
-        <v>58.303776</v>
+        <v>46.349261</v>
       </c>
       <c r="I4">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="J4">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6651113333333333</v>
+        <v>0.6102786666666665</v>
       </c>
       <c r="N4">
-        <v>1.995334</v>
+        <v>1.830836</v>
       </c>
       <c r="O4">
-        <v>0.2781321568709446</v>
+        <v>0.1986972066270314</v>
       </c>
       <c r="P4">
-        <v>0.2781321568709446</v>
+        <v>0.1986972066270314</v>
       </c>
       <c r="Q4">
-        <v>12.92616739790933</v>
+        <v>9.428655068021776</v>
       </c>
       <c r="R4">
-        <v>116.335506581184</v>
+        <v>84.85789561219599</v>
       </c>
       <c r="S4">
-        <v>0.03460430795360661</v>
+        <v>0.0255820047817309</v>
       </c>
       <c r="T4">
-        <v>0.03460430795360662</v>
+        <v>0.02558200478173089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.434592</v>
+        <v>15.44975366666667</v>
       </c>
       <c r="H5">
-        <v>58.303776</v>
+        <v>46.349261</v>
       </c>
       <c r="I5">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="J5">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3417453333333333</v>
+        <v>0.352523</v>
       </c>
       <c r="N5">
-        <v>1.025236</v>
+        <v>1.057569</v>
       </c>
       <c r="O5">
-        <v>0.1429089565865864</v>
+        <v>0.1147759854598353</v>
       </c>
       <c r="P5">
-        <v>0.1429089565865864</v>
+        <v>0.1147759854598353</v>
       </c>
       <c r="Q5">
-        <v>6.641681121237333</v>
+        <v>5.446393511834333</v>
       </c>
       <c r="R5">
-        <v>59.775130091136</v>
+        <v>49.017541606509</v>
       </c>
       <c r="S5">
-        <v>0.01778027251032851</v>
+        <v>0.0147772576107365</v>
       </c>
       <c r="T5">
-        <v>0.01778027251032852</v>
+        <v>0.0147772576107365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>146.675835</v>
       </c>
       <c r="I6">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="J6">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7597586666666668</v>
+        <v>1.483864</v>
       </c>
       <c r="N6">
-        <v>2.279276</v>
+        <v>4.451592</v>
       </c>
       <c r="O6">
-        <v>0.3177111952105157</v>
+        <v>0.4831229533629666</v>
       </c>
       <c r="P6">
-        <v>0.3177111952105158</v>
+        <v>0.4831229533629666</v>
       </c>
       <c r="Q6">
-        <v>37.14607894394</v>
+        <v>72.54899707547999</v>
       </c>
       <c r="R6">
-        <v>334.3147104954601</v>
+        <v>652.94097367932</v>
       </c>
       <c r="S6">
-        <v>0.09944280585852418</v>
+        <v>0.1968413073450258</v>
       </c>
       <c r="T6">
-        <v>0.09944280585852419</v>
+        <v>0.1968413073450258</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>146.675835</v>
       </c>
       <c r="I7">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="J7">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.874204</v>
       </c>
       <c r="O7">
-        <v>0.2612476913319534</v>
+        <v>0.2034038545501667</v>
       </c>
       <c r="P7">
-        <v>0.2612476913319534</v>
+        <v>0.2034038545501667</v>
       </c>
       <c r="Q7">
         <v>30.54449296226</v>
@@ -883,10 +883,10 @@
         <v>274.90043666034</v>
       </c>
       <c r="S7">
-        <v>0.08176987100784171</v>
+        <v>0.08287389446096517</v>
       </c>
       <c r="T7">
-        <v>0.08176987100784171</v>
+        <v>0.08287389446096517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>146.675835</v>
       </c>
       <c r="I8">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="J8">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6651113333333333</v>
+        <v>0.6102786666666665</v>
       </c>
       <c r="N8">
-        <v>1.995334</v>
+        <v>1.830836</v>
       </c>
       <c r="O8">
-        <v>0.2781321568709446</v>
+        <v>0.1986972066270314</v>
       </c>
       <c r="P8">
-        <v>0.2781321568709446</v>
+        <v>0.1986972066270314</v>
       </c>
       <c r="Q8">
-        <v>32.51858672821</v>
+        <v>29.83771100533999</v>
       </c>
       <c r="R8">
-        <v>292.66728055389</v>
+        <v>268.53939904806</v>
       </c>
       <c r="S8">
-        <v>0.08705466629969887</v>
+        <v>0.08095624032353767</v>
       </c>
       <c r="T8">
-        <v>0.08705466629969887</v>
+        <v>0.08095624032353767</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>146.675835</v>
       </c>
       <c r="I9">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="J9">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3417453333333333</v>
+        <v>0.352523</v>
       </c>
       <c r="N9">
-        <v>1.025236</v>
+        <v>1.057569</v>
       </c>
       <c r="O9">
-        <v>0.1429089565865864</v>
+        <v>0.1147759854598353</v>
       </c>
       <c r="P9">
-        <v>0.1429089565865864</v>
+        <v>0.1147759854598353</v>
       </c>
       <c r="Q9">
-        <v>16.70859404134</v>
+        <v>17.235535127235</v>
       </c>
       <c r="R9">
-        <v>150.37734637206</v>
+        <v>155.119816145115</v>
       </c>
       <c r="S9">
-        <v>0.04473014435600159</v>
+        <v>0.04676377901828641</v>
       </c>
       <c r="T9">
-        <v>0.0447301443560016</v>
+        <v>0.04676377901828641</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.685484</v>
+        <v>24.32144666666666</v>
       </c>
       <c r="H10">
-        <v>68.05645200000001</v>
+        <v>72.96433999999999</v>
       </c>
       <c r="I10">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="J10">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7597586666666668</v>
+        <v>1.483864</v>
       </c>
       <c r="N10">
-        <v>2.279276</v>
+        <v>4.451592</v>
       </c>
       <c r="O10">
-        <v>0.3177111952105157</v>
+        <v>0.4831229533629666</v>
       </c>
       <c r="P10">
-        <v>0.3177111952105158</v>
+        <v>0.4831229533629666</v>
       </c>
       <c r="Q10">
-        <v>17.23549307652801</v>
+        <v>36.08971913658666</v>
       </c>
       <c r="R10">
-        <v>155.119437688752</v>
+        <v>324.8074722292799</v>
       </c>
       <c r="S10">
-        <v>0.04614069211643466</v>
+        <v>0.09791930671584015</v>
       </c>
       <c r="T10">
-        <v>0.04614069211643466</v>
+        <v>0.09791930671584015</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.685484</v>
+        <v>24.32144666666666</v>
       </c>
       <c r="H11">
-        <v>68.05645200000001</v>
+        <v>72.96433999999999</v>
       </c>
       <c r="I11">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="J11">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.874204</v>
       </c>
       <c r="O11">
-        <v>0.2612476913319534</v>
+        <v>0.2034038545501667</v>
       </c>
       <c r="P11">
-        <v>0.2612476913319534</v>
+        <v>0.2034038545501667</v>
       </c>
       <c r="Q11">
-        <v>14.172408284912</v>
+        <v>15.19445087615111</v>
       </c>
       <c r="R11">
-        <v>127.551674564208</v>
+        <v>136.75005788536</v>
       </c>
       <c r="S11">
-        <v>0.03794058715460098</v>
+        <v>0.04122587072760812</v>
       </c>
       <c r="T11">
-        <v>0.03794058715460098</v>
+        <v>0.04122587072760812</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.685484</v>
+        <v>24.32144666666666</v>
       </c>
       <c r="H12">
-        <v>68.05645200000001</v>
+        <v>72.96433999999999</v>
       </c>
       <c r="I12">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="J12">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6651113333333333</v>
+        <v>0.6102786666666665</v>
       </c>
       <c r="N12">
-        <v>1.995334</v>
+        <v>1.830836</v>
       </c>
       <c r="O12">
-        <v>0.2781321568709446</v>
+        <v>0.1986972066270314</v>
       </c>
       <c r="P12">
-        <v>0.2781321568709446</v>
+        <v>0.1986972066270314</v>
       </c>
       <c r="Q12">
-        <v>15.088372510552</v>
+        <v>14.84286004313777</v>
       </c>
       <c r="R12">
-        <v>135.795352594968</v>
+        <v>133.58574038824</v>
       </c>
       <c r="S12">
-        <v>0.04039269125961666</v>
+        <v>0.04027192784747612</v>
       </c>
       <c r="T12">
-        <v>0.04039269125961666</v>
+        <v>0.04027192784747612</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.685484</v>
+        <v>24.32144666666666</v>
       </c>
       <c r="H13">
-        <v>68.05645200000001</v>
+        <v>72.96433999999999</v>
       </c>
       <c r="I13">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="J13">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3417453333333333</v>
+        <v>0.352523</v>
       </c>
       <c r="N13">
-        <v>1.025236</v>
+        <v>1.057569</v>
       </c>
       <c r="O13">
-        <v>0.1429089565865864</v>
+        <v>0.1147759854598353</v>
       </c>
       <c r="P13">
-        <v>0.1429089565865864</v>
+        <v>0.1147759854598353</v>
       </c>
       <c r="Q13">
-        <v>7.752658291408001</v>
+        <v>8.573869343273332</v>
       </c>
       <c r="R13">
-        <v>69.77392462267201</v>
+        <v>77.16482408946</v>
       </c>
       <c r="S13">
-        <v>0.020754440718318</v>
+        <v>0.02326278402966048</v>
       </c>
       <c r="T13">
-        <v>0.02075444071831801</v>
+        <v>0.02326278402966048</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>65.19353</v>
+        <v>31.33616366666666</v>
       </c>
       <c r="H14">
-        <v>195.58059</v>
+        <v>94.00849099999999</v>
       </c>
       <c r="I14">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="J14">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7597586666666668</v>
+        <v>1.483864</v>
       </c>
       <c r="N14">
-        <v>2.279276</v>
+        <v>4.451592</v>
       </c>
       <c r="O14">
-        <v>0.3177111952105157</v>
+        <v>0.4831229533629666</v>
       </c>
       <c r="P14">
-        <v>0.3177111952105158</v>
+        <v>0.4831229533629666</v>
       </c>
       <c r="Q14">
-        <v>49.53134942809334</v>
+        <v>46.49860516307466</v>
       </c>
       <c r="R14">
-        <v>445.78214485284</v>
+        <v>418.4874464676719</v>
       </c>
       <c r="S14">
-        <v>0.132599092693528</v>
+        <v>0.1261608926240174</v>
       </c>
       <c r="T14">
-        <v>0.132599092693528</v>
+        <v>0.1261608926240174</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>65.19353</v>
+        <v>31.33616366666666</v>
       </c>
       <c r="H15">
-        <v>195.58059</v>
+        <v>94.00849099999999</v>
       </c>
       <c r="I15">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="J15">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.874204</v>
       </c>
       <c r="O15">
-        <v>0.2612476913319534</v>
+        <v>0.2034038545501667</v>
       </c>
       <c r="P15">
-        <v>0.2612476913319534</v>
+        <v>0.2034038545501667</v>
       </c>
       <c r="Q15">
-        <v>40.72865823337333</v>
+        <v>19.57678776290711</v>
       </c>
       <c r="R15">
-        <v>366.55792410036</v>
+        <v>176.191089866164</v>
       </c>
       <c r="S15">
-        <v>0.1090336360855732</v>
+        <v>0.05311610983205648</v>
       </c>
       <c r="T15">
-        <v>0.1090336360855732</v>
+        <v>0.05311610983205648</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>65.19353</v>
+        <v>31.33616366666666</v>
       </c>
       <c r="H16">
-        <v>195.58059</v>
+        <v>94.00849099999999</v>
       </c>
       <c r="I16">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="J16">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6651113333333333</v>
+        <v>0.6102786666666665</v>
       </c>
       <c r="N16">
-        <v>1.995334</v>
+        <v>1.830836</v>
       </c>
       <c r="O16">
-        <v>0.2781321568709446</v>
+        <v>0.1986972066270314</v>
       </c>
       <c r="P16">
-        <v>0.2781321568709446</v>
+        <v>0.1986972066270314</v>
       </c>
       <c r="Q16">
-        <v>43.36095566300666</v>
+        <v>19.12379218094177</v>
       </c>
       <c r="R16">
-        <v>390.2486009670599</v>
+        <v>172.114129628476</v>
       </c>
       <c r="S16">
-        <v>0.1160804913580224</v>
+        <v>0.05188703367428676</v>
       </c>
       <c r="T16">
-        <v>0.1160804913580224</v>
+        <v>0.05188703367428676</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>65.19353</v>
+        <v>31.33616366666666</v>
       </c>
       <c r="H17">
-        <v>195.58059</v>
+        <v>94.00849099999999</v>
       </c>
       <c r="I17">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="J17">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3417453333333333</v>
+        <v>0.352523</v>
       </c>
       <c r="N17">
-        <v>1.025236</v>
+        <v>1.057569</v>
       </c>
       <c r="O17">
-        <v>0.1429089565865864</v>
+        <v>0.1147759854598353</v>
       </c>
       <c r="P17">
-        <v>0.1429089565865864</v>
+        <v>0.1147759854598353</v>
       </c>
       <c r="Q17">
-        <v>22.27958464102667</v>
+        <v>11.04671842426433</v>
       </c>
       <c r="R17">
-        <v>200.51626176924</v>
+        <v>99.42046581837899</v>
       </c>
       <c r="S17">
-        <v>0.05964409900193825</v>
+        <v>0.02997216480115192</v>
       </c>
       <c r="T17">
-        <v>0.05964409900193826</v>
+        <v>0.02997216480115192</v>
       </c>
     </row>
   </sheetData>
